--- a/old_database/crypto/library/library_0759.xlsx
+++ b/old_database/crypto/library/library_0759.xlsx
@@ -52,7 +52,7 @@
     <t>08.31.12</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_0759</t>
   </si>
   <si>
     <t>08.20.12</t>
